--- a/RUSA/rusa_check.xlsx
+++ b/RUSA/rusa_check.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24120" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="ges" sheetId="1" r:id="rId1"/>
+    <sheet name="gtp_ges_800" sheetId="4" r:id="rId2"/>
+    <sheet name="gtp_2_800 (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>GA</t>
   </si>
@@ -86,6 +87,21 @@
   <si>
     <t>Tdiff%</t>
   </si>
+  <si>
+    <t>Eq</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>GES</t>
+  </si>
+  <si>
+    <t>GTP2</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -159,6 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -213,7 +236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>ges!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -225,7 +248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>ges!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -263,39 +286,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$11</c:f>
+              <c:f>ges!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4400000000000004</c:v>
+                  <c:v>4.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.82</c:v>
+                  <c:v>11.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.26</c:v>
+                  <c:v>8.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.99</c:v>
+                  <c:v>6.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9499999999999993</c:v>
+                  <c:v>9.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>9.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.51</c:v>
+                  <c:v>14.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.43</c:v>
+                  <c:v>7.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.73</c:v>
+                  <c:v>12.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.82</c:v>
+                  <c:v>14.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,7 +329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$1</c:f>
+              <c:f>ges!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -318,7 +341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>ges!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -356,39 +379,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$2:$G$11</c:f>
+              <c:f>ges!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.41</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.220000000000001</c:v>
+                  <c:v>10.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.11</c:v>
+                  <c:v>10.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4900000000000002</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.07</c:v>
+                  <c:v>5.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.06</c:v>
+                  <c:v>27.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.12</c:v>
+                  <c:v>25.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.24</c:v>
+                  <c:v>5.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.28</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,7 +422,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$K$1</c:f>
+              <c:f>ges!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -411,7 +434,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>ges!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -449,39 +472,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$K$2:$K$11</c:f>
+              <c:f>ges!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.32</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.79</c:v>
+                  <c:v>11.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.24</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2799999999999998</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.19</c:v>
+                  <c:v>5.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.9</c:v>
+                  <c:v>24.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.41</c:v>
+                  <c:v>25.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8899999999999997</c:v>
+                  <c:v>4.8099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.130000000000001</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.86</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,12 +520,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="47813376"/>
-        <c:axId val="47837952"/>
+        <c:axId val="189686528"/>
+        <c:axId val="189688064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="47813376"/>
+        <c:axId val="189686528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47837952"/>
+        <c:crossAx val="189688064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47837952"/>
+        <c:axId val="189688064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47813376"/>
+        <c:crossAx val="189686528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -592,7 +615,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$1</c:f>
+              <c:f>ges!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -604,7 +627,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>ges!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -642,39 +665,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$11</c:f>
+              <c:f>ges!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.78</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.62</c:v>
+                  <c:v>42.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.07</c:v>
+                  <c:v>31.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.21</c:v>
+                  <c:v>24.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>34.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.53</c:v>
+                  <c:v>33.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.17</c:v>
+                  <c:v>53.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.23</c:v>
+                  <c:v>28.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.19</c:v>
+                  <c:v>45.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.41</c:v>
+                  <c:v>51.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +708,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$I$1</c:f>
+              <c:f>ges!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,7 +720,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>ges!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -735,39 +758,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$2:$I$11</c:f>
+              <c:f>ges!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.18</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.53</c:v>
+                  <c:v>34.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.51</c:v>
+                  <c:v>32.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.67</c:v>
+                  <c:v>6.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.22</c:v>
+                  <c:v>18.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.97</c:v>
+                  <c:v>88.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.94</c:v>
+                  <c:v>85.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.309999999999999</c:v>
+                  <c:v>17.010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.46</c:v>
+                  <c:v>26.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7799999999999994</c:v>
+                  <c:v>8.1300000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +801,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$M$1</c:f>
+              <c:f>ges!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -790,7 +813,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>ges!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -828,39 +851,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$M$2:$M$11</c:f>
+              <c:f>ges!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.88</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.01</c:v>
+                  <c:v>36.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.97</c:v>
+                  <c:v>34.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.25</c:v>
+                  <c:v>5.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.95</c:v>
+                  <c:v>20.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.36</c:v>
+                  <c:v>81.540000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.87</c:v>
+                  <c:v>85.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.190000000000001</c:v>
+                  <c:v>15.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.39</c:v>
+                  <c:v>29.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.18</c:v>
+                  <c:v>7.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,12 +899,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="67791104"/>
-        <c:axId val="67796992"/>
+        <c:axId val="189718528"/>
+        <c:axId val="189720064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67791104"/>
+        <c:axId val="189718528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67796992"/>
+        <c:crossAx val="189720064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -898,7 +921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67796992"/>
+        <c:axId val="189720064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +932,1523 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67791104"/>
+        <c:crossAx val="189718528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gtp_ges_800!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gtp_ges_800!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gtp_ges_800!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gtp_ges_800!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eq%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gtp_ges_800!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gtp_ges_800!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gtp_ges_800!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gtp_ges_800!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gtp_ges_800!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="192425984"/>
+        <c:axId val="192427520"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="192425984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192427520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192427520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192425984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gtp_ges_800!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Treal%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gtp_ges_800!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gtp_ges_800!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gtp_ges_800!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teq%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gtp_ges_800!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gtp_ges_800!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gtp_ges_800!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tdiff%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gtp_ges_800!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gtp_ges_800!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="194998272"/>
+        <c:axId val="194999808"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="194998272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="194999808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="194999808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="194998272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gtp_2_800 (2)'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eq%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gtp_2_800 (2)'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gtp_2_800 (2)'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="126423424"/>
+        <c:axId val="126424960"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="126423424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126424960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126424960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126423424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Treal%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gtp_2_800 (2)'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teq%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gtp_2_800 (2)'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tdiff%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gtp_2_800 (2)'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>GA1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GA2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GA3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GA4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GA5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GA6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GA7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GA8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GA10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gtp_2_800 (2)'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="125987072"/>
+        <c:axId val="125992960"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="125987072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125992960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125992960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125987072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -980,6 +2519,144 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Диаграмма 9"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1285,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,40 +3014,40 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>997342.63</v>
+        <v>2329747.2000000002</v>
       </c>
       <c r="C2" s="4">
-        <v>4.4400000000000004</v>
+        <v>4.74</v>
       </c>
       <c r="D2" s="4">
-        <v>1221</v>
+        <v>2844</v>
       </c>
       <c r="E2" s="4">
-        <v>16.78</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4">
-        <v>312371.36</v>
+        <v>548450.01</v>
       </c>
       <c r="G2" s="4">
-        <v>1.41</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H2" s="4">
-        <v>304</v>
+        <v>543</v>
       </c>
       <c r="I2" s="4">
-        <v>4.18</v>
+        <v>3.25</v>
       </c>
       <c r="J2" s="4">
-        <v>290751.68</v>
+        <v>498228.22</v>
       </c>
       <c r="K2" s="4">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="L2" s="4">
-        <v>282</v>
+        <v>499</v>
       </c>
       <c r="M2" s="4">
-        <v>3.88</v>
+        <v>2.99</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1379,40 +3056,40 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>3103313.95</v>
+        <v>5717283.4100000001</v>
       </c>
       <c r="C3" s="4">
-        <v>13.82</v>
+        <v>11.62</v>
       </c>
       <c r="D3" s="4">
-        <v>3831</v>
+        <v>7108</v>
       </c>
       <c r="E3" s="4">
-        <v>52.62</v>
+        <v>42.48</v>
       </c>
       <c r="F3" s="4">
-        <v>2259903.69</v>
+        <v>5153179.4000000004</v>
       </c>
       <c r="G3" s="4">
-        <v>10.220000000000001</v>
+        <v>10.64</v>
       </c>
       <c r="H3" s="4">
-        <v>2587</v>
+        <v>5845</v>
       </c>
       <c r="I3" s="4">
-        <v>35.53</v>
+        <v>34.93</v>
       </c>
       <c r="J3" s="4">
-        <v>2381692.94</v>
+        <v>5501653.1900000004</v>
       </c>
       <c r="K3" s="4">
-        <v>10.79</v>
+        <v>11.37</v>
       </c>
       <c r="L3" s="4">
-        <v>2622</v>
+        <v>6098</v>
       </c>
       <c r="M3" s="4">
-        <v>36.01</v>
+        <v>36.450000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1420,40 +3097,40 @@
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>1630607.51</v>
+        <v>4248875.29</v>
       </c>
       <c r="C4" s="4">
-        <v>7.26</v>
+        <v>8.64</v>
       </c>
       <c r="D4" s="4">
-        <v>2043</v>
+        <v>5311</v>
       </c>
       <c r="E4" s="4">
-        <v>28.07</v>
+        <v>31.74</v>
       </c>
       <c r="F4" s="4">
-        <v>2455356.52</v>
+        <v>5112132.79</v>
       </c>
       <c r="G4" s="4">
-        <v>11.11</v>
+        <v>10.55</v>
       </c>
       <c r="H4" s="4">
-        <v>2585</v>
+        <v>5418</v>
       </c>
       <c r="I4" s="4">
-        <v>35.51</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="J4" s="4">
-        <v>2702368.12</v>
+        <v>5929039.9199999999</v>
       </c>
       <c r="K4" s="4">
-        <v>12.24</v>
+        <v>12.25</v>
       </c>
       <c r="L4" s="4">
-        <v>2619</v>
+        <v>5799</v>
       </c>
       <c r="M4" s="4">
-        <v>35.97</v>
+        <v>34.659999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1461,40 +3138,40 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>1569569.06</v>
+        <v>3335311.94</v>
       </c>
       <c r="C5" s="4">
-        <v>6.99</v>
+        <v>6.78</v>
       </c>
       <c r="D5" s="4">
-        <v>1908</v>
+        <v>4042</v>
       </c>
       <c r="E5" s="4">
-        <v>26.21</v>
+        <v>24.16</v>
       </c>
       <c r="F5" s="4">
-        <v>549743.1</v>
+        <v>1022145.96</v>
       </c>
       <c r="G5" s="4">
-        <v>2.4900000000000002</v>
+        <v>2.11</v>
       </c>
       <c r="H5" s="4">
-        <v>558</v>
+        <v>1057</v>
       </c>
       <c r="I5" s="4">
-        <v>7.67</v>
+        <v>6.32</v>
       </c>
       <c r="J5" s="4">
-        <v>502697.64</v>
+        <v>937139.62</v>
       </c>
       <c r="K5" s="4">
-        <v>2.2799999999999998</v>
+        <v>1.94</v>
       </c>
       <c r="L5" s="4">
-        <v>527</v>
+        <v>1001</v>
       </c>
       <c r="M5" s="4">
-        <v>7.25</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1502,40 +3179,40 @@
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>2008342.84</v>
+        <v>4600686.17</v>
       </c>
       <c r="C6" s="4">
-        <v>8.9499999999999993</v>
+        <v>9.35</v>
       </c>
       <c r="D6" s="4">
-        <v>2490</v>
+        <v>5751</v>
       </c>
       <c r="E6" s="4">
-        <v>34.200000000000003</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="F6" s="4">
-        <v>1340922.3899999999</v>
+        <v>2826554.66</v>
       </c>
       <c r="G6" s="4">
-        <v>6.07</v>
+        <v>5.83</v>
       </c>
       <c r="H6" s="4">
-        <v>1472</v>
+        <v>3107</v>
       </c>
       <c r="I6" s="4">
-        <v>20.22</v>
+        <v>18.57</v>
       </c>
       <c r="J6" s="4">
-        <v>1366795.36</v>
+        <v>2787226.56</v>
       </c>
       <c r="K6" s="4">
-        <v>6.19</v>
+        <v>5.76</v>
       </c>
       <c r="L6" s="4">
-        <v>1671</v>
+        <v>3401</v>
       </c>
       <c r="M6" s="4">
-        <v>22.95</v>
+        <v>20.329999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1543,40 +3220,40 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>2256102.11</v>
+        <v>4509824.57</v>
       </c>
       <c r="C7" s="4">
-        <v>10.050000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="D7" s="4">
-        <v>2732</v>
+        <v>5524</v>
       </c>
       <c r="E7" s="4">
-        <v>37.53</v>
+        <v>33.01</v>
       </c>
       <c r="F7" s="4">
-        <v>5761183.3600000003</v>
+        <v>13157548.27</v>
       </c>
       <c r="G7" s="4">
-        <v>26.06</v>
+        <v>27.16</v>
       </c>
       <c r="H7" s="4">
-        <v>6550</v>
+        <v>14784</v>
       </c>
       <c r="I7" s="4">
-        <v>89.97</v>
+        <v>88.35</v>
       </c>
       <c r="J7" s="4">
-        <v>5717845.7699999996</v>
+        <v>11823048.07</v>
       </c>
       <c r="K7" s="4">
-        <v>25.9</v>
+        <v>24.44</v>
       </c>
       <c r="L7" s="4">
-        <v>6578</v>
+        <v>13643</v>
       </c>
       <c r="M7" s="4">
-        <v>90.36</v>
+        <v>81.540000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1584,40 +3261,40 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>3258285.07</v>
+        <v>7359538.0199999996</v>
       </c>
       <c r="C8" s="4">
-        <v>14.51</v>
+        <v>14.96</v>
       </c>
       <c r="D8" s="4">
-        <v>3944</v>
+        <v>9006</v>
       </c>
       <c r="E8" s="4">
-        <v>54.17</v>
+        <v>53.82</v>
       </c>
       <c r="F8" s="4">
-        <v>5331929.13</v>
+        <v>12580635.51</v>
       </c>
       <c r="G8" s="4">
-        <v>24.12</v>
+        <v>25.97</v>
       </c>
       <c r="H8" s="4">
-        <v>6111</v>
+        <v>14263</v>
       </c>
       <c r="I8" s="4">
-        <v>83.94</v>
+        <v>85.24</v>
       </c>
       <c r="J8" s="4">
-        <v>5168758.78</v>
+        <v>12316924.98</v>
       </c>
       <c r="K8" s="4">
-        <v>23.41</v>
+        <v>25.46</v>
       </c>
       <c r="L8" s="4">
-        <v>5960</v>
+        <v>14230</v>
       </c>
       <c r="M8" s="4">
-        <v>81.87</v>
+        <v>85.04</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1625,40 +3302,40 @@
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>1667087.62</v>
+        <v>3907241.27</v>
       </c>
       <c r="C9" s="4">
-        <v>7.43</v>
+        <v>7.94</v>
       </c>
       <c r="D9" s="4">
-        <v>2055</v>
+        <v>4820</v>
       </c>
       <c r="E9" s="4">
-        <v>28.23</v>
+        <v>28.81</v>
       </c>
       <c r="F9" s="4">
-        <v>1158986.75</v>
+        <v>2576894.64</v>
       </c>
       <c r="G9" s="4">
-        <v>5.24</v>
+        <v>5.32</v>
       </c>
       <c r="H9" s="4">
-        <v>1260</v>
+        <v>2846</v>
       </c>
       <c r="I9" s="4">
-        <v>17.309999999999999</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="J9" s="4">
-        <v>1080178.76</v>
+        <v>2328975.7999999998</v>
       </c>
       <c r="K9" s="4">
-        <v>4.8899999999999997</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="L9" s="4">
-        <v>1178</v>
+        <v>2592</v>
       </c>
       <c r="M9" s="4">
-        <v>16.190000000000001</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1666,40 +3343,40 @@
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>2407761.9</v>
+        <v>6080586.4400000004</v>
       </c>
       <c r="C10" s="4">
-        <v>10.73</v>
+        <v>12.36</v>
       </c>
       <c r="D10" s="4">
-        <v>2999</v>
+        <v>7538</v>
       </c>
       <c r="E10" s="4">
-        <v>41.19</v>
+        <v>45.05</v>
       </c>
       <c r="F10" s="4">
-        <v>2272601.04</v>
+        <v>4187914.38</v>
       </c>
       <c r="G10" s="4">
-        <v>10.28</v>
+        <v>8.65</v>
       </c>
       <c r="H10" s="4">
-        <v>2363</v>
+        <v>4365</v>
       </c>
       <c r="I10" s="4">
-        <v>32.46</v>
+        <v>26.09</v>
       </c>
       <c r="J10" s="4">
-        <v>2235778.96</v>
+        <v>5050952.4800000004</v>
       </c>
       <c r="K10" s="4">
-        <v>10.130000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="L10" s="4">
-        <v>2212</v>
+        <v>4998</v>
       </c>
       <c r="M10" s="4">
-        <v>30.39</v>
+        <v>29.87</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1707,40 +3384,40 @@
         <v>13</v>
       </c>
       <c r="B11" s="4">
-        <v>3550550.52</v>
+        <v>7113350.7599999998</v>
       </c>
       <c r="C11" s="4">
-        <v>15.82</v>
+        <v>14.46</v>
       </c>
       <c r="D11" s="4">
-        <v>4252</v>
+        <v>8631</v>
       </c>
       <c r="E11" s="4">
-        <v>58.41</v>
+        <v>51.58</v>
       </c>
       <c r="F11" s="4">
-        <v>662439.79</v>
+        <v>1277287.22</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="H11" s="4">
-        <v>712</v>
+        <v>1360</v>
       </c>
       <c r="I11" s="4">
-        <v>9.7799999999999994</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="J11" s="4">
-        <v>630919.75</v>
+        <v>1211095.78</v>
       </c>
       <c r="K11" s="4">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="L11" s="4">
-        <v>668</v>
+        <v>1302</v>
       </c>
       <c r="M11" s="4">
-        <v>9.18</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1916,24 +3593,1363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2138193.27</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2650</v>
+      </c>
+      <c r="E2" s="4">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>321631.62</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>332</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J2" s="4">
+        <v>273631.23</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="L2" s="4">
+        <v>289</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5502353.54</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6895</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41.78</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4911519.83</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5618</v>
+      </c>
+      <c r="I3" s="4">
+        <v>34.04</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5249654.29</v>
+      </c>
+      <c r="K3" s="4">
+        <v>11.41</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5871</v>
+      </c>
+      <c r="M3" s="4">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4006075.39</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.56</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5085</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30.81</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4877203.07</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10.59</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5191</v>
+      </c>
+      <c r="I4" s="4">
+        <v>31.45</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5677939.5899999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>12.34</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5572</v>
+      </c>
+      <c r="M4" s="4">
+        <v>33.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3084441.33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.59</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3818</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23.13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>792538.8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="H5" s="4">
+        <v>844</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="J5" s="4">
+        <v>719690.93</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="L5" s="4">
+        <v>788</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4346932</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5525</v>
+      </c>
+      <c r="E6" s="4">
+        <v>33.47</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2584323.15</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.61</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2880</v>
+      </c>
+      <c r="I6" s="4">
+        <v>17.45</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2566264.81</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5.58</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3174</v>
+      </c>
+      <c r="M6" s="4">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4267434.8499999996</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5298</v>
+      </c>
+      <c r="E7" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12922489.220000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>28.05</v>
+      </c>
+      <c r="H7" s="4">
+        <v>14557</v>
+      </c>
+      <c r="I7" s="4">
+        <v>88.19</v>
+      </c>
+      <c r="J7" s="4">
+        <v>11582350.34</v>
+      </c>
+      <c r="K7" s="4">
+        <v>25.17</v>
+      </c>
+      <c r="L7" s="4">
+        <v>13416</v>
+      </c>
+      <c r="M7" s="4">
+        <v>81.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7114136.2199999997</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15.19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8782</v>
+      </c>
+      <c r="E8" s="4">
+        <v>53.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12341405.66</v>
+      </c>
+      <c r="G8" s="4">
+        <v>26.79</v>
+      </c>
+      <c r="H8" s="4">
+        <v>14036</v>
+      </c>
+      <c r="I8" s="4">
+        <v>85.04</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12085940.279999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>26.26</v>
+      </c>
+      <c r="L8" s="4">
+        <v>14003</v>
+      </c>
+      <c r="M8" s="4">
+        <v>84.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3665517.1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7.83</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4599</v>
+      </c>
+      <c r="E9" s="4">
+        <v>27.86</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2334503.9500000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.07</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2618</v>
+      </c>
+      <c r="I9" s="4">
+        <v>15.86</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2099970.84</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2365</v>
+      </c>
+      <c r="M9" s="4">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5834752.0099999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12.46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7311</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3951937.81</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.58</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4138</v>
+      </c>
+      <c r="I10" s="4">
+        <v>25.07</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4799477.07</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10.43</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4771</v>
+      </c>
+      <c r="M10" s="4">
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6861355.75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>14.65</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8404</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50.91</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1036097.96</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1133</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="J11" s="4">
+        <v>966030.27</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1075</v>
+      </c>
+      <c r="M11" s="4">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="A1:M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2138193.27</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2650</v>
+      </c>
+      <c r="E2" s="4">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5502353.54</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6895</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41.78</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4006075.39</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.56</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5085</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30.81</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5070524.1900000004</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10.98</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5338</v>
+      </c>
+      <c r="I4" s="4">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5883393.5999999996</v>
+      </c>
+      <c r="K4" s="4">
+        <v>12.76</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5752</v>
+      </c>
+      <c r="M4" s="4">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3084441.33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.59</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3818</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23.13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1073860.72</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1067</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6.47</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1007769.94</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1036</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4346932</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5525</v>
+      </c>
+      <c r="E6" s="4">
+        <v>33.47</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3079334.59</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3351</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2951909.46</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3540</v>
+      </c>
+      <c r="M6" s="4">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4267434.8499999996</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5298</v>
+      </c>
+      <c r="E7" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13056641.289999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>28.28</v>
+      </c>
+      <c r="H7" s="4">
+        <v>14607</v>
+      </c>
+      <c r="I7" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>11667414.699999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="L7" s="4">
+        <v>13663</v>
+      </c>
+      <c r="M7" s="4">
+        <v>82.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7114136.2199999997</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15.19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8782</v>
+      </c>
+      <c r="E8" s="4">
+        <v>53.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12451902.84</v>
+      </c>
+      <c r="G8" s="4">
+        <v>26.97</v>
+      </c>
+      <c r="H8" s="4">
+        <v>14043</v>
+      </c>
+      <c r="I8" s="4">
+        <v>85.08</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12163539.75</v>
+      </c>
+      <c r="K8" s="4">
+        <v>26.38</v>
+      </c>
+      <c r="L8" s="4">
+        <v>14121</v>
+      </c>
+      <c r="M8" s="4">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3665517.1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7.83</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4599</v>
+      </c>
+      <c r="E9" s="4">
+        <v>27.86</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2969837.37</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3283</v>
+      </c>
+      <c r="I9" s="4">
+        <v>19.89</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2685188.45</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5.82</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2962</v>
+      </c>
+      <c r="M9" s="4">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5834752.0099999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12.46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7311</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4963520.9000000004</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5219</v>
+      </c>
+      <c r="I10" s="4">
+        <v>31.62</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8119826.3799999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>17.61</v>
+      </c>
+      <c r="L10" s="4">
+        <v>8126</v>
+      </c>
+      <c r="M10" s="4">
+        <v>49.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6861355.75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>14.65</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8404</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50.91</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3507401.66</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3816</v>
+      </c>
+      <c r="I11" s="4">
+        <v>23.12</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1630657.05</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1749</v>
+      </c>
+      <c r="M11" s="4">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>SUM(gtp_ges_800!B2:B11)</f>
+        <v>46821191.460000001</v>
+      </c>
+      <c r="B3" s="7">
+        <f>SUM(gtp_ges_800!F2:F11)</f>
+        <v>46073651.070000008</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUM(gtp_ges_800!J2:J11)</f>
+        <v>46020949.650000006</v>
+      </c>
+      <c r="D3" s="7">
+        <f>SUM('gtp_2_800 (2)'!B2:B11)</f>
+        <v>46821191.460000001</v>
+      </c>
+      <c r="E3" s="7">
+        <f>SUM('gtp_2_800 (2)'!F2:F11)</f>
+        <v>46173023.559999987</v>
+      </c>
+      <c r="F3" s="7">
+        <f>SUM('gtp_2_800 (2)'!J2:J11)</f>
+        <v>46109699.330000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7">
+        <f>B3/A3*100</f>
+        <v>98.403414422636743</v>
+      </c>
+      <c r="C4" s="7">
+        <f>C3/A3*100</f>
+        <v>98.290855518523799</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <f>E3/D3*100</f>
+        <v>98.615652699582085</v>
+      </c>
+      <c r="F4" s="7">
+        <f>F3/D3*100</f>
+        <v>98.480405756850871</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>